--- a/datasets/100_sent.xlsx
+++ b/datasets/100_sent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\githubWorkspace\3rd_year_2\NLP_Labs\Project\cross_lingual_nlp\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{962E9E96-4729-4509-AF69-E66177877E71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF9A98E-2881-4CC1-9954-48C136EFA0DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{1F85FC4E-F202-41C9-83BB-DCB9DAF3EFFF}"/>
   </bookViews>
@@ -112,9 +112,6 @@
     <t>Я очень люблю смотреть на закаты.</t>
   </si>
   <si>
-    <t>Если пишут вам про жопы, про хуи, говно и рот, я скажу вам, без сомненья, пишет русский патриот.</t>
-  </si>
-  <si>
     <t>Chinese</t>
   </si>
   <si>
@@ -503,6 +500,9 @@
   </si>
   <si>
     <t xml:space="preserve">Languages </t>
+  </si>
+  <si>
+    <t>Я ненавижу, когда люди не могут понять очевидные вещи, тупицы.</t>
   </si>
 </sst>
 </file>
@@ -857,7 +857,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -877,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -989,7 +989,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1003,7 +1003,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1017,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1031,7 +1031,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1045,7 +1045,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1059,7 +1059,7 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1067,525 +1067,525 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
         <v>41</v>
       </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
         <v>44</v>
       </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
         <v>47</v>
       </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
         <v>50</v>
       </c>
-      <c r="B32" t="s">
-        <v>51</v>
-      </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
         <v>53</v>
       </c>
-      <c r="B34" t="s">
-        <v>54</v>
-      </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
         <v>56</v>
       </c>
-      <c r="B36" t="s">
-        <v>57</v>
-      </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="B38" t="s">
-        <v>60</v>
-      </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" t="s">
         <v>62</v>
       </c>
-      <c r="B40" t="s">
-        <v>63</v>
-      </c>
       <c r="C40" t="s">
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
         <v>65</v>
       </c>
-      <c r="B42" t="s">
-        <v>66</v>
-      </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" t="s">
         <v>68</v>
       </c>
-      <c r="B44" t="s">
-        <v>69</v>
-      </c>
       <c r="C44" t="s">
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
         <v>71</v>
       </c>
-      <c r="B46" t="s">
-        <v>72</v>
-      </c>
       <c r="C46" t="s">
         <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" t="s">
         <v>74</v>
       </c>
-      <c r="B48" t="s">
-        <v>75</v>
-      </c>
       <c r="C48" t="s">
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" t="s">
         <v>77</v>
       </c>
-      <c r="B50" t="s">
-        <v>78</v>
-      </c>
       <c r="C50" t="s">
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" t="s">
         <v>80</v>
-      </c>
-      <c r="B52" t="s">
-        <v>81</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1593,10 +1593,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1604,10 +1604,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" t="s">
         <v>83</v>
-      </c>
-      <c r="B54" t="s">
-        <v>84</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -1626,10 +1626,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" t="s">
         <v>86</v>
-      </c>
-      <c r="B56" t="s">
-        <v>87</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1637,10 +1637,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
         <v>89</v>
-      </c>
-      <c r="B58" t="s">
-        <v>90</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1659,10 +1659,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -1670,10 +1670,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" t="s">
         <v>92</v>
-      </c>
-      <c r="B60" t="s">
-        <v>93</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -1692,10 +1692,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" t="s">
         <v>95</v>
-      </c>
-      <c r="B62" t="s">
-        <v>96</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1703,10 +1703,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -1714,10 +1714,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" t="s">
         <v>98</v>
-      </c>
-      <c r="B64" t="s">
-        <v>99</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1725,10 +1725,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -1736,10 +1736,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" t="s">
         <v>101</v>
-      </c>
-      <c r="B66" t="s">
-        <v>102</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1747,10 +1747,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
@@ -1758,10 +1758,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" t="s">
         <v>104</v>
-      </c>
-      <c r="B68" t="s">
-        <v>105</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -1780,10 +1780,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1791,10 +1791,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
@@ -1802,10 +1802,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" t="s">
         <v>109</v>
-      </c>
-      <c r="B72" t="s">
-        <v>110</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1813,10 +1813,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
@@ -1824,10 +1824,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" t="s">
         <v>113</v>
-      </c>
-      <c r="B74" t="s">
-        <v>114</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1835,10 +1835,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
@@ -1846,10 +1846,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" t="s">
         <v>116</v>
-      </c>
-      <c r="B76" t="s">
-        <v>117</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1857,10 +1857,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" t="s">
         <v>119</v>
-      </c>
-      <c r="B78" t="s">
-        <v>120</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -1879,10 +1879,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
@@ -1890,10 +1890,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" t="s">
         <v>122</v>
-      </c>
-      <c r="B80" t="s">
-        <v>123</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -1901,10 +1901,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" t="s">
         <v>125</v>
-      </c>
-      <c r="B82" t="s">
-        <v>126</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B83" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
@@ -1934,10 +1934,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" t="s">
         <v>128</v>
-      </c>
-      <c r="B84" t="s">
-        <v>129</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -1945,10 +1945,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
@@ -1956,10 +1956,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" t="s">
         <v>131</v>
-      </c>
-      <c r="B86" t="s">
-        <v>132</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B87" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
@@ -1978,10 +1978,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" t="s">
         <v>134</v>
-      </c>
-      <c r="B88" t="s">
-        <v>135</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -1989,10 +1989,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B89" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
@@ -2000,10 +2000,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
+        <v>137</v>
+      </c>
+      <c r="B90" t="s">
         <v>138</v>
-      </c>
-      <c r="B90" t="s">
-        <v>139</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2011,10 +2011,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
@@ -2022,10 +2022,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B92" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2033,10 +2033,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93" t="s">
         <v>140</v>
-      </c>
-      <c r="B93" t="s">
-        <v>141</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
@@ -2044,10 +2044,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" t="s">
         <v>143</v>
-      </c>
-      <c r="B95" t="s">
-        <v>144</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
@@ -2066,10 +2066,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
+        <v>145</v>
+      </c>
+      <c r="B97" t="s">
         <v>146</v>
-      </c>
-      <c r="B97" t="s">
-        <v>147</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
@@ -2088,10 +2088,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2099,10 +2099,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
+        <v>148</v>
+      </c>
+      <c r="B99" t="s">
         <v>149</v>
-      </c>
-      <c r="B99" t="s">
-        <v>150</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
@@ -2110,10 +2110,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2121,10 +2121,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
+        <v>151</v>
+      </c>
+      <c r="B101" t="s">
         <v>152</v>
-      </c>
-      <c r="B101" t="s">
-        <v>153</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
